--- a/public/mock_data/MOCK_DATA_3.xlsx
+++ b/public/mock_data/MOCK_DATA_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinocajic/www/lsbio-import-test/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinocajic/www/package-laravel-excel/public/mock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75BF83B-1E23-CF4D-8D09-98CA80C24C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4BEB67-AB8A-EF4B-8CDE-265A38A1A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31700" yWindow="7820" windowWidth="22680" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Spinnace</t>
-  </si>
-  <si>
     <t>pspinnace0@nsw.gov.au</t>
   </si>
   <si>
@@ -523,6 +517,12 @@
   </si>
   <si>
     <t>salary_total</t>
+  </si>
+  <si>
+    <t>Amira</t>
+  </si>
+  <si>
+    <t>Cajic</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1393,268 +1393,268 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1680,12 +1680,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>100000</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100000</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>100000</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>100000</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>100000</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>100000</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>100000</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>100000</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>100000</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>100000</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>100000</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>100000</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>100000</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>100000</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>100000</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>100000</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>100000</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>100000</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>100000</v>
@@ -1845,7 +1845,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1858,282 +1858,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2159,12 +2159,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>200000</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>200000</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>200000</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>200000</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>200000</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>200000</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>200000</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>200000</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>200000</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>200000</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>200000</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <v>200000</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>200000</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <v>200000</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>200000</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17">
         <v>200000</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>200000</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19">
         <v>200000</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20">
         <v>200000</v>
@@ -2331,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/public/mock_data/MOCK_DATA_3.xlsx
+++ b/public/mock_data/MOCK_DATA_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinocajic/www/package-laravel-excel/public/mock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4BEB67-AB8A-EF4B-8CDE-265A38A1A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B33A5B-DBCE-0C47-8D6D-458EBAE0B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31700" yWindow="7820" windowWidth="22680" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
     <t>salary_total</t>
   </si>
   <si>
-    <t>Amira</t>
-  </si>
-  <si>
-    <t>Cajic</t>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Jackson</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
